--- a/表格/公式.xlsx
+++ b/表格/公式.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45EA7025-E676-4ECA-A7D9-02DE56F3CFE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hero" sheetId="4" r:id="rId1"/>
-    <sheet name="player" sheetId="5" r:id="rId2"/>
+    <sheet name="(F)hero" sheetId="4" r:id="rId1"/>
+    <sheet name="(F)player" sheetId="5" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hero!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'(F)hero'!$A$1:$F$39</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -58,11 +59,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,11 +163,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="level"/>
@@ -564,7 +573,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -606,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,9 +647,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,6 +699,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,14 +892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -865,7 +910,7 @@
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +931,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -908,14 +953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -924,7 +969,7 @@
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
